--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lpl-Vldlr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lpl-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>54.7686055065557</v>
+        <v>56.56930800000001</v>
       </c>
       <c r="H2">
-        <v>54.7686055065557</v>
+        <v>169.707924</v>
       </c>
       <c r="I2">
-        <v>0.1952704157863309</v>
+        <v>0.1915403855399942</v>
       </c>
       <c r="J2">
-        <v>0.1952704157863309</v>
+        <v>0.1959965330721471</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.190772211437936</v>
+        <v>0.196272</v>
       </c>
       <c r="N2">
-        <v>0.190772211437936</v>
+        <v>0.588816</v>
       </c>
       <c r="O2">
-        <v>0.02964800127054067</v>
+        <v>0.02813229386822481</v>
       </c>
       <c r="P2">
-        <v>0.02964800127054067</v>
+        <v>0.03089009369338271</v>
       </c>
       <c r="Q2">
-        <v>10.44832798985755</v>
+        <v>11.102971219776</v>
       </c>
       <c r="R2">
-        <v>10.44832798985755</v>
+        <v>99.92674097798401</v>
       </c>
       <c r="S2">
-        <v>0.005789377535332142</v>
+        <v>0.005388470413644195</v>
       </c>
       <c r="T2">
-        <v>0.005789377535332142</v>
+        <v>0.006054351270176807</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>54.7686055065557</v>
+        <v>56.56930800000001</v>
       </c>
       <c r="H3">
-        <v>54.7686055065557</v>
+        <v>169.707924</v>
       </c>
       <c r="I3">
-        <v>0.1952704157863309</v>
+        <v>0.1915403855399942</v>
       </c>
       <c r="J3">
-        <v>0.1952704157863309</v>
+        <v>0.1959965330721471</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.37941604908321</v>
+        <v>4.808482333333333</v>
       </c>
       <c r="N3">
-        <v>4.37941604908321</v>
+        <v>14.425447</v>
       </c>
       <c r="O3">
-        <v>0.6806071576608337</v>
+        <v>0.6892151609068061</v>
       </c>
       <c r="P3">
-        <v>0.6806071576608337</v>
+        <v>0.7567787040415452</v>
       </c>
       <c r="Q3">
-        <v>239.8545099413171</v>
+        <v>272.012518126892</v>
       </c>
       <c r="R3">
-        <v>239.8545099413171</v>
+        <v>2448.112663142028</v>
       </c>
       <c r="S3">
-        <v>0.1329024426635838</v>
+        <v>0.1320125376400988</v>
       </c>
       <c r="T3">
-        <v>0.1329024426635838</v>
+        <v>0.1483260022949754</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>54.7686055065557</v>
+        <v>56.56930800000001</v>
       </c>
       <c r="H4">
-        <v>54.7686055065557</v>
+        <v>169.707924</v>
       </c>
       <c r="I4">
-        <v>0.1952704157863309</v>
+        <v>0.1915403855399942</v>
       </c>
       <c r="J4">
-        <v>0.1952704157863309</v>
+        <v>0.1959965330721471</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.86438416468629</v>
+        <v>0.03080033333333333</v>
       </c>
       <c r="N4">
-        <v>1.86438416468629</v>
+        <v>0.092401</v>
       </c>
       <c r="O4">
-        <v>0.2897448410686257</v>
+        <v>0.004414710343669059</v>
       </c>
       <c r="P4">
-        <v>0.2897448410686257</v>
+        <v>0.004847482995302872</v>
       </c>
       <c r="Q4">
-        <v>102.1097208283728</v>
+        <v>1.742353542836</v>
       </c>
       <c r="R4">
-        <v>102.1097208283728</v>
+        <v>15.681181885524</v>
       </c>
       <c r="S4">
-        <v>0.0565785955874149</v>
+        <v>0.0008455953212737718</v>
       </c>
       <c r="T4">
-        <v>0.0565785955874149</v>
+        <v>0.00095008986120555</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>69.8852176098128</v>
+        <v>56.56930800000001</v>
       </c>
       <c r="H5">
-        <v>69.8852176098128</v>
+        <v>169.707924</v>
       </c>
       <c r="I5">
-        <v>0.2491667511664669</v>
+        <v>0.1915403855399942</v>
       </c>
       <c r="J5">
-        <v>0.2491667511664669</v>
+        <v>0.1959965330721471</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.190772211437936</v>
+        <v>0.072589</v>
       </c>
       <c r="N5">
-        <v>0.190772211437936</v>
+        <v>0.217767</v>
       </c>
       <c r="O5">
-        <v>0.02964800127054067</v>
+        <v>0.01040441366878908</v>
       </c>
       <c r="P5">
-        <v>0.02964800127054067</v>
+        <v>0.01142435503336674</v>
       </c>
       <c r="Q5">
-        <v>13.33215751024538</v>
+        <v>4.106309498412</v>
       </c>
       <c r="R5">
-        <v>13.33215751024538</v>
+        <v>36.956785485708</v>
       </c>
       <c r="S5">
-        <v>0.007387296155159902</v>
+        <v>0.001992865405437447</v>
       </c>
       <c r="T5">
-        <v>0.007387296155159902</v>
+        <v>0.002239133979125215</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>69.8852176098128</v>
+        <v>56.56930800000001</v>
       </c>
       <c r="H6">
-        <v>69.8852176098128</v>
+        <v>169.707924</v>
       </c>
       <c r="I6">
-        <v>0.2491667511664669</v>
+        <v>0.1915403855399942</v>
       </c>
       <c r="J6">
-        <v>0.2491667511664669</v>
+        <v>0.1959965330721471</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.37941604908321</v>
+        <v>1.868607</v>
       </c>
       <c r="N6">
-        <v>4.37941604908321</v>
+        <v>3.737214</v>
       </c>
       <c r="O6">
-        <v>0.6806071576608337</v>
+        <v>0.267833421212511</v>
       </c>
       <c r="P6">
-        <v>0.6806071576608337</v>
+        <v>0.1960593642364025</v>
       </c>
       <c r="Q6">
-        <v>306.0564435940868</v>
+        <v>105.705804913956</v>
       </c>
       <c r="R6">
-        <v>306.0564435940868</v>
+        <v>634.234829483736</v>
       </c>
       <c r="S6">
-        <v>0.1695846742949933</v>
+        <v>0.05130091675954001</v>
       </c>
       <c r="T6">
-        <v>0.1695846742949933</v>
+        <v>0.03842695566666419</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>69.8852176098128</v>
+        <v>78.73142499999999</v>
       </c>
       <c r="H7">
-        <v>69.8852176098128</v>
+        <v>236.194275</v>
       </c>
       <c r="I7">
-        <v>0.2491667511664669</v>
+        <v>0.2665800242529595</v>
       </c>
       <c r="J7">
-        <v>0.2491667511664669</v>
+        <v>0.2727819534902171</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.86438416468629</v>
+        <v>0.196272</v>
       </c>
       <c r="N7">
-        <v>1.86438416468629</v>
+        <v>0.588816</v>
       </c>
       <c r="O7">
-        <v>0.2897448410686257</v>
+        <v>0.02813229386822481</v>
       </c>
       <c r="P7">
-        <v>0.2897448410686257</v>
+        <v>0.03089009369338271</v>
       </c>
       <c r="Q7">
-        <v>130.2928930573904</v>
+        <v>15.4527742476</v>
       </c>
       <c r="R7">
-        <v>130.2928930573904</v>
+        <v>139.0749682284</v>
       </c>
       <c r="S7">
-        <v>0.07219478071631377</v>
+        <v>0.007499507581682753</v>
       </c>
       <c r="T7">
-        <v>0.07219478071631377</v>
+        <v>0.008426260101176771</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,122 +903,122 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>89.6200253893587</v>
+        <v>78.73142499999999</v>
       </c>
       <c r="H8">
-        <v>89.6200253893587</v>
+        <v>236.194275</v>
       </c>
       <c r="I8">
-        <v>0.3195286690012012</v>
+        <v>0.2665800242529595</v>
       </c>
       <c r="J8">
-        <v>0.3195286690012012</v>
+        <v>0.2727819534902171</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.190772211437936</v>
+        <v>4.808482333333333</v>
       </c>
       <c r="N8">
-        <v>0.190772211437936</v>
+        <v>14.425447</v>
       </c>
       <c r="O8">
-        <v>0.02964800127054067</v>
+        <v>0.6892151609068061</v>
       </c>
       <c r="P8">
-        <v>0.02964800127054067</v>
+        <v>0.7567787040415452</v>
       </c>
       <c r="Q8">
-        <v>17.09701043265193</v>
+        <v>378.5786661906582</v>
       </c>
       <c r="R8">
-        <v>17.09701043265193</v>
+        <v>3407.207995715925</v>
       </c>
       <c r="S8">
-        <v>0.009473386384521781</v>
+        <v>0.1837309943100437</v>
       </c>
       <c r="T8">
-        <v>0.009473386384521781</v>
+        <v>0.2064355732482476</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>89.6200253893587</v>
+        <v>78.73142499999999</v>
       </c>
       <c r="H9">
-        <v>89.6200253893587</v>
+        <v>236.194275</v>
       </c>
       <c r="I9">
-        <v>0.3195286690012012</v>
+        <v>0.2665800242529595</v>
       </c>
       <c r="J9">
-        <v>0.3195286690012012</v>
+        <v>0.2727819534902171</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>4.37941604908321</v>
+        <v>0.03080033333333333</v>
       </c>
       <c r="N9">
-        <v>4.37941604908321</v>
+        <v>0.092401</v>
       </c>
       <c r="O9">
-        <v>0.6806071576608337</v>
+        <v>0.004414710343669059</v>
       </c>
       <c r="P9">
-        <v>0.6806071576608337</v>
+        <v>0.004847482995302872</v>
       </c>
       <c r="Q9">
-        <v>392.4833775094023</v>
+        <v>2.424954133808333</v>
       </c>
       <c r="R9">
-        <v>392.4833775094023</v>
+        <v>21.824587204275</v>
       </c>
       <c r="S9">
-        <v>0.2174734992000569</v>
+        <v>0.001176873590485089</v>
       </c>
       <c r="T9">
-        <v>0.2174734992000569</v>
+        <v>0.001322305880969326</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>89.6200253893587</v>
+        <v>78.73142499999999</v>
       </c>
       <c r="H10">
-        <v>89.6200253893587</v>
+        <v>236.194275</v>
       </c>
       <c r="I10">
-        <v>0.3195286690012012</v>
+        <v>0.2665800242529595</v>
       </c>
       <c r="J10">
-        <v>0.3195286690012012</v>
+        <v>0.2727819534902171</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>1.86438416468629</v>
+        <v>0.072589</v>
       </c>
       <c r="N10">
-        <v>1.86438416468629</v>
+        <v>0.217767</v>
       </c>
       <c r="O10">
-        <v>0.2897448410686257</v>
+        <v>0.01040441366878908</v>
       </c>
       <c r="P10">
-        <v>0.2897448410686257</v>
+        <v>0.01142435503336674</v>
       </c>
       <c r="Q10">
-        <v>167.0861561747036</v>
+        <v>5.715035409324999</v>
       </c>
       <c r="R10">
-        <v>167.0861561747036</v>
+        <v>51.43531868392499</v>
       </c>
       <c r="S10">
-        <v>0.09258178341662254</v>
+        <v>0.002773608848163616</v>
       </c>
       <c r="T10">
-        <v>0.09258178341662254</v>
+        <v>0.003116357883367575</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>47.4061125382598</v>
+        <v>78.73142499999999</v>
       </c>
       <c r="H11">
-        <v>47.4061125382598</v>
+        <v>236.194275</v>
       </c>
       <c r="I11">
-        <v>0.1690203944493627</v>
+        <v>0.2665800242529595</v>
       </c>
       <c r="J11">
-        <v>0.1690203944493627</v>
+        <v>0.2727819534902171</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.190772211437936</v>
+        <v>1.868607</v>
       </c>
       <c r="N11">
-        <v>0.190772211437936</v>
+        <v>3.737214</v>
       </c>
       <c r="O11">
-        <v>0.02964800127054067</v>
+        <v>0.267833421212511</v>
       </c>
       <c r="P11">
-        <v>0.02964800127054067</v>
+        <v>0.1960593642364025</v>
       </c>
       <c r="Q11">
-        <v>9.043768924599487</v>
+        <v>147.118091874975</v>
       </c>
       <c r="R11">
-        <v>9.043768924599487</v>
+        <v>882.7085512498498</v>
       </c>
       <c r="S11">
-        <v>0.00501111686938199</v>
+        <v>0.07139903992258428</v>
       </c>
       <c r="T11">
-        <v>0.00501111686938199</v>
+        <v>0.05348145637645588</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>47.4061125382598</v>
+        <v>90.69984199999999</v>
       </c>
       <c r="H12">
-        <v>47.4061125382598</v>
+        <v>272.099526</v>
       </c>
       <c r="I12">
-        <v>0.1690203944493627</v>
+        <v>0.3071043878616396</v>
       </c>
       <c r="J12">
-        <v>0.1690203944493627</v>
+        <v>0.3142491080532842</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.37941604908321</v>
+        <v>0.196272</v>
       </c>
       <c r="N12">
-        <v>4.37941604908321</v>
+        <v>0.588816</v>
       </c>
       <c r="O12">
-        <v>0.6806071576608337</v>
+        <v>0.02813229386822481</v>
       </c>
       <c r="P12">
-        <v>0.6806071576608337</v>
+        <v>0.03089009369338271</v>
       </c>
       <c r="Q12">
-        <v>207.6110900746998</v>
+        <v>17.801839389024</v>
       </c>
       <c r="R12">
-        <v>207.6110900746998</v>
+        <v>160.216554501216</v>
       </c>
       <c r="S12">
-        <v>0.1150364902528937</v>
+        <v>0.008639550887544938</v>
       </c>
       <c r="T12">
-        <v>0.1150364902528937</v>
+        <v>0.009707184390827897</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>47.4061125382598</v>
+        <v>90.69984199999999</v>
       </c>
       <c r="H13">
-        <v>47.4061125382598</v>
+        <v>272.099526</v>
       </c>
       <c r="I13">
-        <v>0.1690203944493627</v>
+        <v>0.3071043878616396</v>
       </c>
       <c r="J13">
-        <v>0.1690203944493627</v>
+        <v>0.3142491080532842</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.86438416468629</v>
+        <v>4.808482333333333</v>
       </c>
       <c r="N13">
-        <v>1.86438416468629</v>
+        <v>14.425447</v>
       </c>
       <c r="O13">
-        <v>0.2897448410686257</v>
+        <v>0.6892151609068061</v>
       </c>
       <c r="P13">
-        <v>0.2897448410686257</v>
+        <v>0.7567787040415452</v>
       </c>
       <c r="Q13">
-        <v>88.38320552566775</v>
+        <v>436.1285878931246</v>
       </c>
       <c r="R13">
-        <v>88.38320552566775</v>
+        <v>3925.157291038121</v>
       </c>
       <c r="S13">
-        <v>0.04897278732708702</v>
+        <v>0.2116610000952462</v>
       </c>
       <c r="T13">
-        <v>0.04897278732708702</v>
+        <v>0.2378170327387759</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.7957335767727</v>
+        <v>90.69984199999999</v>
       </c>
       <c r="H14">
-        <v>18.7957335767727</v>
+        <v>272.099526</v>
       </c>
       <c r="I14">
-        <v>0.06701376959663841</v>
+        <v>0.3071043878616396</v>
       </c>
       <c r="J14">
-        <v>0.06701376959663841</v>
+        <v>0.3142491080532842</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.190772211437936</v>
+        <v>0.03080033333333333</v>
       </c>
       <c r="N14">
-        <v>0.190772211437936</v>
+        <v>0.092401</v>
       </c>
       <c r="O14">
-        <v>0.02964800127054067</v>
+        <v>0.004414710343669059</v>
       </c>
       <c r="P14">
-        <v>0.02964800127054067</v>
+        <v>0.004847482995302872</v>
       </c>
       <c r="Q14">
-        <v>3.585703660039194</v>
+        <v>2.793585366880666</v>
       </c>
       <c r="R14">
-        <v>3.585703660039194</v>
+        <v>25.14226830192599</v>
       </c>
       <c r="S14">
-        <v>0.001986824326144855</v>
+        <v>0.001355776917678935</v>
       </c>
       <c r="T14">
-        <v>0.001986824326144855</v>
+        <v>0.00152331720757739</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.7957335767727</v>
+        <v>90.69984199999999</v>
       </c>
       <c r="H15">
-        <v>18.7957335767727</v>
+        <v>272.099526</v>
       </c>
       <c r="I15">
-        <v>0.06701376959663841</v>
+        <v>0.3071043878616396</v>
       </c>
       <c r="J15">
-        <v>0.06701376959663841</v>
+        <v>0.3142491080532842</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>4.37941604908321</v>
+        <v>0.072589</v>
       </c>
       <c r="N15">
-        <v>4.37941604908321</v>
+        <v>0.217767</v>
       </c>
       <c r="O15">
-        <v>0.6806071576608337</v>
+        <v>0.01040441366878908</v>
       </c>
       <c r="P15">
-        <v>0.6806071576608337</v>
+        <v>0.01142435503336674</v>
       </c>
       <c r="Q15">
-        <v>82.31433728041054</v>
+        <v>6.583810830937999</v>
       </c>
       <c r="R15">
-        <v>82.31433728041054</v>
+        <v>59.25429747844199</v>
       </c>
       <c r="S15">
-        <v>0.04561005124930606</v>
+        <v>0.003195241090812747</v>
       </c>
       <c r="T15">
-        <v>0.04561005124930606</v>
+        <v>0.003590093379319547</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.7957335767727</v>
+        <v>90.69984199999999</v>
       </c>
       <c r="H16">
-        <v>18.7957335767727</v>
+        <v>272.099526</v>
       </c>
       <c r="I16">
-        <v>0.06701376959663841</v>
+        <v>0.3071043878616396</v>
       </c>
       <c r="J16">
-        <v>0.06701376959663841</v>
+        <v>0.3142491080532842</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.86438416468629</v>
+        <v>1.868607</v>
       </c>
       <c r="N16">
-        <v>1.86438416468629</v>
+        <v>3.737214</v>
       </c>
       <c r="O16">
-        <v>0.2897448410686257</v>
+        <v>0.267833421212511</v>
       </c>
       <c r="P16">
-        <v>0.2897448410686257</v>
+        <v>0.1960593642364025</v>
       </c>
       <c r="Q16">
-        <v>35.04246804419743</v>
+        <v>169.482359660094</v>
       </c>
       <c r="R16">
-        <v>35.04246804419743</v>
+        <v>1016.894157960564</v>
       </c>
       <c r="S16">
-        <v>0.0194168940211875</v>
+        <v>0.08225281887035686</v>
       </c>
       <c r="T16">
-        <v>0.0194168940211875</v>
+        <v>0.06161148033678344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>49.19389200000001</v>
+      </c>
+      <c r="H17">
+        <v>147.581676</v>
+      </c>
+      <c r="I17">
+        <v>0.1665676560846888</v>
+      </c>
+      <c r="J17">
+        <v>0.1704428182208917</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.196272</v>
+      </c>
+      <c r="N17">
+        <v>0.588816</v>
+      </c>
+      <c r="O17">
+        <v>0.02813229386822481</v>
+      </c>
+      <c r="P17">
+        <v>0.03089009369338271</v>
+      </c>
+      <c r="Q17">
+        <v>9.655383570624002</v>
+      </c>
+      <c r="R17">
+        <v>86.89845213561601</v>
+      </c>
+      <c r="S17">
+        <v>0.004685930249915871</v>
+      </c>
+      <c r="T17">
+        <v>0.005264994624207542</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>49.19389200000001</v>
+      </c>
+      <c r="H18">
+        <v>147.581676</v>
+      </c>
+      <c r="I18">
+        <v>0.1665676560846888</v>
+      </c>
+      <c r="J18">
+        <v>0.1704428182208917</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.808482333333333</v>
+      </c>
+      <c r="N18">
+        <v>14.425447</v>
+      </c>
+      <c r="O18">
+        <v>0.6892151609068061</v>
+      </c>
+      <c r="P18">
+        <v>0.7567787040415452</v>
+      </c>
+      <c r="Q18">
+        <v>236.547960589908</v>
+      </c>
+      <c r="R18">
+        <v>2128.931645309172</v>
+      </c>
+      <c r="S18">
+        <v>0.1148009538902783</v>
+      </c>
+      <c r="T18">
+        <v>0.1289874950863951</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>49.19389200000001</v>
+      </c>
+      <c r="H19">
+        <v>147.581676</v>
+      </c>
+      <c r="I19">
+        <v>0.1665676560846888</v>
+      </c>
+      <c r="J19">
+        <v>0.1704428182208917</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.03080033333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.092401</v>
+      </c>
+      <c r="O19">
+        <v>0.004414710343669059</v>
+      </c>
+      <c r="P19">
+        <v>0.004847482995302872</v>
+      </c>
+      <c r="Q19">
+        <v>1.515188271564</v>
+      </c>
+      <c r="R19">
+        <v>13.636694444076</v>
+      </c>
+      <c r="S19">
+        <v>0.0007353479542377862</v>
+      </c>
+      <c r="T19">
+        <v>0.0008262186629972709</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>49.19389200000001</v>
+      </c>
+      <c r="H20">
+        <v>147.581676</v>
+      </c>
+      <c r="I20">
+        <v>0.1665676560846888</v>
+      </c>
+      <c r="J20">
+        <v>0.1704428182208917</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.072589</v>
+      </c>
+      <c r="N20">
+        <v>0.217767</v>
+      </c>
+      <c r="O20">
+        <v>0.01040441366878908</v>
+      </c>
+      <c r="P20">
+        <v>0.01142435503336674</v>
+      </c>
+      <c r="Q20">
+        <v>3.570935426388</v>
+      </c>
+      <c r="R20">
+        <v>32.138418837492</v>
+      </c>
+      <c r="S20">
+        <v>0.001733038797745695</v>
+      </c>
+      <c r="T20">
+        <v>0.001947199268243057</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>49.19389200000001</v>
+      </c>
+      <c r="H21">
+        <v>147.581676</v>
+      </c>
+      <c r="I21">
+        <v>0.1665676560846888</v>
+      </c>
+      <c r="J21">
+        <v>0.1704428182208917</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.868607</v>
+      </c>
+      <c r="N21">
+        <v>3.737214</v>
+      </c>
+      <c r="O21">
+        <v>0.267833421212511</v>
+      </c>
+      <c r="P21">
+        <v>0.1960593642364025</v>
+      </c>
+      <c r="Q21">
+        <v>91.92405094844401</v>
+      </c>
+      <c r="R21">
+        <v>551.544305690664</v>
+      </c>
+      <c r="S21">
+        <v>0.04461238519251113</v>
+      </c>
+      <c r="T21">
+        <v>0.03341691057904874</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>20.144335</v>
+      </c>
+      <c r="H22">
+        <v>40.28867</v>
+      </c>
+      <c r="I22">
+        <v>0.06820754626071789</v>
+      </c>
+      <c r="J22">
+        <v>0.04652958716345985</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.196272</v>
+      </c>
+      <c r="N22">
+        <v>0.588816</v>
+      </c>
+      <c r="O22">
+        <v>0.02813229386822481</v>
+      </c>
+      <c r="P22">
+        <v>0.03089009369338271</v>
+      </c>
+      <c r="Q22">
+        <v>3.95376891912</v>
+      </c>
+      <c r="R22">
+        <v>23.72261351472</v>
+      </c>
+      <c r="S22">
+        <v>0.001918834735437054</v>
+      </c>
+      <c r="T22">
+        <v>0.001437303306993692</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>20.144335</v>
+      </c>
+      <c r="H23">
+        <v>40.28867</v>
+      </c>
+      <c r="I23">
+        <v>0.06820754626071789</v>
+      </c>
+      <c r="J23">
+        <v>0.04652958716345985</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.808482333333333</v>
+      </c>
+      <c r="N23">
+        <v>14.425447</v>
+      </c>
+      <c r="O23">
+        <v>0.6892151609068061</v>
+      </c>
+      <c r="P23">
+        <v>0.7567787040415452</v>
+      </c>
+      <c r="Q23">
+        <v>96.86367896424832</v>
+      </c>
+      <c r="R23">
+        <v>581.1820737854899</v>
+      </c>
+      <c r="S23">
+        <v>0.0470096749711391</v>
+      </c>
+      <c r="T23">
+        <v>0.03521260067315126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>20.144335</v>
+      </c>
+      <c r="H24">
+        <v>40.28867</v>
+      </c>
+      <c r="I24">
+        <v>0.06820754626071789</v>
+      </c>
+      <c r="J24">
+        <v>0.04652958716345985</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.03080033333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.092401</v>
+      </c>
+      <c r="O24">
+        <v>0.004414710343669059</v>
+      </c>
+      <c r="P24">
+        <v>0.004847482995302872</v>
+      </c>
+      <c r="Q24">
+        <v>0.6204522327783333</v>
+      </c>
+      <c r="R24">
+        <v>3.72271339667</v>
+      </c>
+      <c r="S24">
+        <v>0.0003011165599934771</v>
+      </c>
+      <c r="T24">
+        <v>0.0002255513825533344</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>20.144335</v>
+      </c>
+      <c r="H25">
+        <v>40.28867</v>
+      </c>
+      <c r="I25">
+        <v>0.06820754626071789</v>
+      </c>
+      <c r="J25">
+        <v>0.04652958716345985</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.072589</v>
+      </c>
+      <c r="N25">
+        <v>0.217767</v>
+      </c>
+      <c r="O25">
+        <v>0.01040441366878908</v>
+      </c>
+      <c r="P25">
+        <v>0.01142435503336674</v>
+      </c>
+      <c r="Q25">
+        <v>1.462257133315</v>
+      </c>
+      <c r="R25">
+        <v>8.773542799889999</v>
+      </c>
+      <c r="S25">
+        <v>0.0007096595266295768</v>
+      </c>
+      <c r="T25">
+        <v>0.0005315705233113491</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>20.144335</v>
+      </c>
+      <c r="H26">
+        <v>40.28867</v>
+      </c>
+      <c r="I26">
+        <v>0.06820754626071789</v>
+      </c>
+      <c r="J26">
+        <v>0.04652958716345985</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.868607</v>
+      </c>
+      <c r="N26">
+        <v>3.737214</v>
+      </c>
+      <c r="O26">
+        <v>0.267833421212511</v>
+      </c>
+      <c r="P26">
+        <v>0.1960593642364025</v>
+      </c>
+      <c r="Q26">
+        <v>37.64184539134499</v>
+      </c>
+      <c r="R26">
+        <v>150.56738156538</v>
+      </c>
+      <c r="S26">
+        <v>0.01826826046751868</v>
+      </c>
+      <c r="T26">
+        <v>0.009122561277450212</v>
       </c>
     </row>
   </sheetData>
